--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/43_Karabük_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/43_Karabük_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5FE427C-A87E-4917-A90F-243A8E8314B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBA432BC-E582-4DC1-AC5C-F5D1FE58C53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" xr2:uid="{1956D658-12E0-4765-A39B-E02001D1A5A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" xr2:uid="{F48BA492-4636-4AC6-A0B1-4D9C8A2B1B0D}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="151" r:id="rId1"/>
@@ -809,14 +809,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{BFF40511-AC98-403D-9CAC-57E6BECA6C62}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{B8977923-AEB3-4E52-8229-456FCC7AB412}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{FCC1A89A-256D-4742-84D6-83A59D4D10DD}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{223F4C55-3104-4159-9A8B-49CC006017F2}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{C394D571-8C05-42A7-A7A8-129A4CAB9B12}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{33BA9F40-F9F8-4CC3-8F12-A38D0DEC8BE7}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{B41B24B0-0803-4222-9856-76C18A144367}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{6C046FC6-F644-4575-8901-5A2FC6C6F8CF}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{E2D5BC03-4BE2-4583-A04C-E76B9EB7F477}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{8E831F9B-E56D-45F3-A271-F80130712FF2}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{85E5B1E9-FDFB-45E9-BFED-C3D26177B29A}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{31EB123F-7EAA-4C48-8282-20DEBB0FB309}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{F5AF3E1F-F6B7-4FDB-933D-9D92AE8EB5B2}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{102DB774-628B-4AFC-B972-4CACB2CC1A31}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{E2CA402D-10B4-4588-A8A4-C0A787B2D0E7}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{749EE7D9-07AE-4EF1-B8ED-23F21AB9E975}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1186,7 +1186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70086C55-6F9E-4D9C-850C-D7715DE0ADCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC324EF-CEA6-42FB-98BD-A7780BD649AC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2437,7 +2437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6AD239-D0A3-4A1B-A301-C462A82B1A13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A59CB30F-568A-440B-8D3C-84938C2BB488}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3690,7 +3690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123F25FB-A31A-411D-8096-B89039B98B7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9444765-0CC4-44A1-8654-C5908DD3D541}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4943,7 +4943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00234B12-1DE0-42EE-AFF5-297544C5DAB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2622014-E379-4C18-BC2E-D52DEA7D6FE4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6196,7 +6196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1913239E-475F-4EBA-927B-0E26E31B924B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DEBCB3-2282-44D4-9590-D2C9ECCFB488}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7435,7 +7435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F172D405-0E93-4C0C-A722-B8E789E83587}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D05E6C-8385-41C4-8036-DB555FABD59E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
